--- a/ESPN sports website/IPL/Kolkata Knight Riders/Ajinkya Rahane.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Ajinkya Rahane.xlsx
@@ -480,31 +480,31 @@
         <v>Ajinkya Rahane</v>
       </c>
       <c r="C3" t="str">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="str">
         <v>11</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>63.63</v>
+        <v>109.09</v>
       </c>
       <c r="H3" t="str">
-        <v>Mumbai Indians</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>April 06, 2022</v>
+        <v>April 01, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
+        <v>KKR won by 6 wickets (with 33 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,10 +515,10 @@
         <v>Ajinkya Rahane</v>
       </c>
       <c r="C4" t="str">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D4" t="str">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E4" t="str">
         <v>3</v>
@@ -527,19 +527,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>109.09</v>
+        <v>104.16</v>
       </c>
       <c r="H4" t="str">
-        <v>Punjab Kings</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I4" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>April 01, 2022</v>
+        <v>May 09, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>KKR won by 6 wickets (with 33 balls remaining)</v>
+        <v>KKR won by 52 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Ajinkya Rahane</v>
       </c>
       <c r="C5" t="str">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="str">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>57.14</v>
+        <v>63.63</v>
       </c>
       <c r="H5" t="str">
-        <v>Delhi Capitals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J5" t="str">
-        <v>April 10, 2022</v>
+        <v>April 06, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Capitals won by 44 runs</v>
+        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Ajinkya Rahane</v>
       </c>
       <c r="C6" t="str">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D6" t="str">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E6" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>104.16</v>
+        <v>57.14</v>
       </c>
       <c r="H6" t="str">
-        <v>Mumbai Indians</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I6" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J6" t="str">
-        <v>May 09, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>Capitals won by 44 runs</v>
       </c>
     </row>
     <row r="7">
